--- a/etc/디비구조.xlsx
+++ b/etc/디비구조.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Android\mobileProgramming\ticket_machine\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5832"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -162,35 +162,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>booked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>auditorium_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>booked</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preview</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>movie</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,20 +532,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -553,7 +553,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -576,7 +576,7 @@
         <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
         <v>32</v>
@@ -585,16 +585,16 @@
         <v>33</v>
       </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="N2" t="s">
         <v>31</v>
       </c>
       <c r="O2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -632,7 +632,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F4">
         <v>2</v>
       </c>
@@ -652,7 +652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F5">
         <v>3</v>
       </c>
@@ -672,7 +672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F6">
         <v>4</v>
       </c>
@@ -692,7 +692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -712,7 +712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -744,7 +744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -776,7 +776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -808,9 +808,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J15" t="s">
         <v>5</v>
@@ -819,18 +819,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
         <v>37</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>38</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>39</v>
-      </c>
-      <c r="D16" t="s">
-        <v>40</v>
       </c>
       <c r="J16" t="s">
         <v>6</v>
@@ -842,7 +842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0</v>
       </c>
@@ -856,7 +856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -870,7 +870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J19">
         <v>3</v>
       </c>
@@ -881,7 +881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J20">
         <v>4</v>
       </c>
@@ -892,7 +892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J21">
         <v>5</v>
       </c>
@@ -903,7 +903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J22">
         <v>6</v>
       </c>
@@ -914,7 +914,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J23">
         <v>7</v>
       </c>

--- a/etc/디비구조.xlsx
+++ b/etc/디비구조.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>member</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,6 +187,10 @@
   </si>
   <si>
     <t>movie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -530,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -545,7 +549,7 @@
     <col min="13" max="13" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -553,7 +557,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -585,7 +589,7 @@
         <v>33</v>
       </c>
       <c r="M2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N2" t="s">
         <v>31</v>
@@ -593,8 +597,11 @@
       <c r="O2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -632,7 +639,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F4">
         <v>2</v>
       </c>
@@ -652,7 +659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F5">
         <v>3</v>
       </c>
@@ -672,7 +679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F6">
         <v>4</v>
       </c>
@@ -692,7 +699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -712,7 +719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -744,7 +751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -776,7 +783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -808,7 +815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -819,7 +826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -853,7 +860,7 @@
         <v>200</v>
       </c>
       <c r="L17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
